--- a/sample_config_master/タイヨウ/F-45N ver2.00.xlsx
+++ b/sample_config_master/タイヨウ/F-45N ver2.00.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="169">
   <si>
     <t xml:space="preserve">1R </t>
   </si>
@@ -851,7 +851,21 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="5">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1220,12 +1234,112 @@
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="L3" lockText="1" noThreeD="1"/>
 </file>
 
+<file path=xl/ctrlProps/ctrlProp174.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="L5" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp175.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="L6" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp176.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="L7" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp177.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="L9" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp178.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="L10" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp179.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="L11" lockText="1" noThreeD="1"/>
+</file>
+
 <file path=xl/ctrlProps/ctrlProp18.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="L13" lockText="1" noThreeD="1"/>
 </file>
 
+<file path=xl/ctrlProps/ctrlProp180.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="L12" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp181.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="L13" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp182.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="L14" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp183.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="L15" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp184.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="L16" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp185.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="L19" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp186.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="L20" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp187.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="L21" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp188.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="L22" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp189.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="L24" lockText="1" noThreeD="1"/>
+</file>
+
 <file path=xl/ctrlProps/ctrlProp19.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="L31" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp190.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="L25" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp191.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="L28" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp192.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="L29" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp193.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="L31" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp194.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="L32" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp195.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="L36" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp196.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="L37" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp197.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="L38" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp198.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="L3" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -10844,6 +10958,1031 @@
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s3178"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>12</xdr:col>
+          <xdr:colOff>57150</xdr:colOff>
+          <xdr:row>41</xdr:row>
+          <xdr:rowOff>9525</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>13</xdr:col>
+          <xdr:colOff>76200</xdr:colOff>
+          <xdr:row>42</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3179" name="Check Box 107" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s3179"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>12</xdr:col>
+          <xdr:colOff>57150</xdr:colOff>
+          <xdr:row>42</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>13</xdr:col>
+          <xdr:colOff>76200</xdr:colOff>
+          <xdr:row>43</xdr:row>
+          <xdr:rowOff>78797</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3180" name="Check Box 108" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s3180"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>12</xdr:col>
+          <xdr:colOff>57150</xdr:colOff>
+          <xdr:row>43</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>13</xdr:col>
+          <xdr:colOff>76200</xdr:colOff>
+          <xdr:row>44</xdr:row>
+          <xdr:rowOff>78798</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3181" name="Check Box 109" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s3181"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>12</xdr:col>
+          <xdr:colOff>57150</xdr:colOff>
+          <xdr:row>45</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>13</xdr:col>
+          <xdr:colOff>76200</xdr:colOff>
+          <xdr:row>46</xdr:row>
+          <xdr:rowOff>78798</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3182" name="Check Box 110" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s3182"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>12</xdr:col>
+          <xdr:colOff>57150</xdr:colOff>
+          <xdr:row>46</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>13</xdr:col>
+          <xdr:colOff>76200</xdr:colOff>
+          <xdr:row>47</xdr:row>
+          <xdr:rowOff>78797</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3183" name="Check Box 111" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s3183"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>12</xdr:col>
+          <xdr:colOff>57150</xdr:colOff>
+          <xdr:row>47</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>13</xdr:col>
+          <xdr:colOff>76200</xdr:colOff>
+          <xdr:row>48</xdr:row>
+          <xdr:rowOff>78798</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3184" name="Check Box 112" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s3184"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>12</xdr:col>
+          <xdr:colOff>57150</xdr:colOff>
+          <xdr:row>48</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>13</xdr:col>
+          <xdr:colOff>76200</xdr:colOff>
+          <xdr:row>49</xdr:row>
+          <xdr:rowOff>78798</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3185" name="Check Box 113" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s3185"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>12</xdr:col>
+          <xdr:colOff>57150</xdr:colOff>
+          <xdr:row>49</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>13</xdr:col>
+          <xdr:colOff>76200</xdr:colOff>
+          <xdr:row>50</xdr:row>
+          <xdr:rowOff>78798</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3186" name="Check Box 114" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s3186"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>12</xdr:col>
+          <xdr:colOff>57150</xdr:colOff>
+          <xdr:row>50</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>13</xdr:col>
+          <xdr:colOff>76200</xdr:colOff>
+          <xdr:row>51</xdr:row>
+          <xdr:rowOff>78798</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3187" name="Check Box 115" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s3187"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>12</xdr:col>
+          <xdr:colOff>57150</xdr:colOff>
+          <xdr:row>51</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>13</xdr:col>
+          <xdr:colOff>76200</xdr:colOff>
+          <xdr:row>52</xdr:row>
+          <xdr:rowOff>78797</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3188" name="Check Box 116" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s3188"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>12</xdr:col>
+          <xdr:colOff>57150</xdr:colOff>
+          <xdr:row>52</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>13</xdr:col>
+          <xdr:colOff>76200</xdr:colOff>
+          <xdr:row>53</xdr:row>
+          <xdr:rowOff>78798</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3189" name="Check Box 117" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s3189"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>12</xdr:col>
+          <xdr:colOff>57150</xdr:colOff>
+          <xdr:row>55</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>13</xdr:col>
+          <xdr:colOff>76200</xdr:colOff>
+          <xdr:row>56</xdr:row>
+          <xdr:rowOff>78798</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3190" name="Check Box 118" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s3190"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>12</xdr:col>
+          <xdr:colOff>57150</xdr:colOff>
+          <xdr:row>56</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>13</xdr:col>
+          <xdr:colOff>76200</xdr:colOff>
+          <xdr:row>57</xdr:row>
+          <xdr:rowOff>78798</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3191" name="Check Box 119" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s3191"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>12</xdr:col>
+          <xdr:colOff>57150</xdr:colOff>
+          <xdr:row>57</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>13</xdr:col>
+          <xdr:colOff>76200</xdr:colOff>
+          <xdr:row>58</xdr:row>
+          <xdr:rowOff>78797</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3192" name="Check Box 120" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s3192"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>12</xdr:col>
+          <xdr:colOff>57150</xdr:colOff>
+          <xdr:row>58</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>13</xdr:col>
+          <xdr:colOff>76200</xdr:colOff>
+          <xdr:row>59</xdr:row>
+          <xdr:rowOff>78798</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3193" name="Check Box 121" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s3193"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>12</xdr:col>
+          <xdr:colOff>57150</xdr:colOff>
+          <xdr:row>60</xdr:row>
+          <xdr:rowOff>9525</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>13</xdr:col>
+          <xdr:colOff>76200</xdr:colOff>
+          <xdr:row>61</xdr:row>
+          <xdr:rowOff>88323</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3194" name="Check Box 122" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s3194"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>12</xdr:col>
+          <xdr:colOff>57150</xdr:colOff>
+          <xdr:row>61</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>13</xdr:col>
+          <xdr:colOff>76200</xdr:colOff>
+          <xdr:row>62</xdr:row>
+          <xdr:rowOff>78798</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3195" name="Check Box 123" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s3195"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>12</xdr:col>
+          <xdr:colOff>57150</xdr:colOff>
+          <xdr:row>64</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>13</xdr:col>
+          <xdr:colOff>76200</xdr:colOff>
+          <xdr:row>65</xdr:row>
+          <xdr:rowOff>78797</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3196" name="Check Box 124" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s3196"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>12</xdr:col>
+          <xdr:colOff>57150</xdr:colOff>
+          <xdr:row>65</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>13</xdr:col>
+          <xdr:colOff>76200</xdr:colOff>
+          <xdr:row>66</xdr:row>
+          <xdr:rowOff>78798</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3197" name="Check Box 125" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s3197"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>12</xdr:col>
+          <xdr:colOff>57150</xdr:colOff>
+          <xdr:row>67</xdr:row>
+          <xdr:rowOff>9525</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>13</xdr:col>
+          <xdr:colOff>76200</xdr:colOff>
+          <xdr:row>68</xdr:row>
+          <xdr:rowOff>88323</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3198" name="Check Box 126" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s3198"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>12</xdr:col>
+          <xdr:colOff>57150</xdr:colOff>
+          <xdr:row>68</xdr:row>
+          <xdr:rowOff>9525</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>13</xdr:col>
+          <xdr:colOff>76200</xdr:colOff>
+          <xdr:row>69</xdr:row>
+          <xdr:rowOff>88322</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3199" name="Check Box 127" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s3199"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>12</xdr:col>
+          <xdr:colOff>57150</xdr:colOff>
+          <xdr:row>72</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>13</xdr:col>
+          <xdr:colOff>76200</xdr:colOff>
+          <xdr:row>73</xdr:row>
+          <xdr:rowOff>78798</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3200" name="Check Box 128" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s3200"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>12</xdr:col>
+          <xdr:colOff>57150</xdr:colOff>
+          <xdr:row>73</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>13</xdr:col>
+          <xdr:colOff>76200</xdr:colOff>
+          <xdr:row>74</xdr:row>
+          <xdr:rowOff>78797</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3201" name="Check Box 129" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s3201"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>12</xdr:col>
+          <xdr:colOff>57150</xdr:colOff>
+          <xdr:row>74</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>13</xdr:col>
+          <xdr:colOff>76200</xdr:colOff>
+          <xdr:row>75</xdr:row>
+          <xdr:rowOff>78798</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3202" name="Check Box 130" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s3202"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>12</xdr:col>
+          <xdr:colOff>57150</xdr:colOff>
+          <xdr:row>39</xdr:row>
+          <xdr:rowOff>9525</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>13</xdr:col>
+          <xdr:colOff>76200</xdr:colOff>
+          <xdr:row>40</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3203" name="Check Box 131" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s3203"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -11805,12 +12944,12 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="N3:N34 P3:S34">
-    <cfRule type="expression" dxfId="2" priority="9">
+    <cfRule type="expression" dxfId="4" priority="9">
       <formula>$L3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O3:O34">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="3" priority="1">
       <formula>$L3</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13326,10 +14465,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="L1:S42"/>
+  <dimension ref="L1:S76"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="H46" sqref="H46"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="W39" sqref="W39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -14078,20 +15217,561 @@
     <row r="40" spans="12:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="L40" s="1"/>
       <c r="M40" s="1"/>
-      <c r="N40" s="1"/>
-      <c r="O40" s="1"/>
-      <c r="P40" s="1"/>
-      <c r="Q40" s="1"/>
-      <c r="R40" s="1"/>
-      <c r="S40" s="1"/>
+      <c r="N40" s="9">
+        <v>1</v>
+      </c>
+      <c r="O40" s="11"/>
+      <c r="P40" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q40" s="9"/>
+      <c r="R40" s="11"/>
+      <c r="S40" s="11"/>
     </row>
-    <row r="41" spans="12:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="42" spans="12:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="41" spans="12:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="N41" s="9">
+        <v>2</v>
+      </c>
+      <c r="O41" s="11"/>
+      <c r="P41" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q41" s="9"/>
+      <c r="R41" s="11"/>
+      <c r="S41" s="11"/>
+    </row>
+    <row r="42" spans="12:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="N42" s="9">
+        <v>3</v>
+      </c>
+      <c r="O42" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="P42" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q42" s="9"/>
+      <c r="R42" s="11"/>
+      <c r="S42" s="11"/>
+    </row>
+    <row r="43" spans="12:19" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="N43" s="9">
+        <v>4</v>
+      </c>
+      <c r="O43" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="P43" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q43" s="9"/>
+      <c r="R43" s="11"/>
+      <c r="S43" s="11"/>
+    </row>
+    <row r="44" spans="12:19" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="N44" s="9">
+        <v>5</v>
+      </c>
+      <c r="O44" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="P44" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q44" s="9"/>
+      <c r="R44" s="11"/>
+      <c r="S44" s="11"/>
+    </row>
+    <row r="45" spans="12:19" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="N45" s="9">
+        <v>6</v>
+      </c>
+      <c r="O45" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="P45" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q45" s="9"/>
+      <c r="R45" s="11"/>
+      <c r="S45" s="11"/>
+    </row>
+    <row r="46" spans="12:19" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="N46" s="9">
+        <v>7</v>
+      </c>
+      <c r="O46" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="P46" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q46" s="9"/>
+      <c r="R46" s="11"/>
+      <c r="S46" s="11"/>
+    </row>
+    <row r="47" spans="12:19" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="N47" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="O47" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="P47" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q47" s="9"/>
+      <c r="R47" s="11"/>
+      <c r="S47" s="11"/>
+    </row>
+    <row r="48" spans="12:19" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="N48" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="O48" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="P48" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q48" s="9"/>
+      <c r="R48" s="11"/>
+      <c r="S48" s="11"/>
+    </row>
+    <row r="49" spans="14:19" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="N49" s="9">
+        <v>9</v>
+      </c>
+      <c r="O49" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="P49" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q49" s="9"/>
+      <c r="R49" s="11"/>
+      <c r="S49" s="11"/>
+    </row>
+    <row r="50" spans="14:19" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="N50" s="9">
+        <v>10</v>
+      </c>
+      <c r="O50" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="P50" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q50" s="9"/>
+      <c r="R50" s="11"/>
+      <c r="S50" s="11" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="51" spans="14:19" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="N51" s="9">
+        <v>11</v>
+      </c>
+      <c r="O51" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="P51" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q51" s="9"/>
+      <c r="R51" s="11"/>
+      <c r="S51" s="11"/>
+    </row>
+    <row r="52" spans="14:19" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="N52" s="9">
+        <v>12</v>
+      </c>
+      <c r="O52" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="P52" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q52" s="9"/>
+      <c r="R52" s="11"/>
+      <c r="S52" s="11"/>
+    </row>
+    <row r="53" spans="14:19" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="N53" s="9">
+        <v>13</v>
+      </c>
+      <c r="O53" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="P53" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q53" s="9"/>
+      <c r="R53" s="11"/>
+      <c r="S53" s="11"/>
+    </row>
+    <row r="54" spans="14:19" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="N54" s="9">
+        <v>14</v>
+      </c>
+      <c r="O54" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="P54" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q54" s="9"/>
+      <c r="R54" s="11"/>
+      <c r="S54" s="11" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="55" spans="14:19" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="N55" s="9">
+        <v>15</v>
+      </c>
+      <c r="O55" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="P55" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q55" s="9"/>
+      <c r="R55" s="11"/>
+      <c r="S55" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56" spans="14:19" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="N56" s="9">
+        <v>16</v>
+      </c>
+      <c r="O56" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="P56" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q56" s="9"/>
+      <c r="R56" s="11"/>
+      <c r="S56" s="11"/>
+    </row>
+    <row r="57" spans="14:19" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="N57" s="9">
+        <v>17</v>
+      </c>
+      <c r="O57" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="P57" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q57" s="9"/>
+      <c r="R57" s="11"/>
+      <c r="S57" s="11" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="58" spans="14:19" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="N58" s="9">
+        <v>18</v>
+      </c>
+      <c r="O58" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="P58" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q58" s="9"/>
+      <c r="R58" s="11"/>
+      <c r="S58" s="11"/>
+    </row>
+    <row r="59" spans="14:19" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="N59" s="9">
+        <v>19</v>
+      </c>
+      <c r="O59" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="P59" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q59" s="9"/>
+      <c r="R59" s="11"/>
+      <c r="S59" s="11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="60" spans="14:19" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="N60" s="9">
+        <v>20</v>
+      </c>
+      <c r="O60" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="P60" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q60" s="9"/>
+      <c r="R60" s="11"/>
+      <c r="S60" s="11" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="61" spans="14:19" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="N61" s="9">
+        <v>21</v>
+      </c>
+      <c r="O61" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="P61" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q61" s="9"/>
+      <c r="R61" s="11"/>
+      <c r="S61" s="11"/>
+    </row>
+    <row r="62" spans="14:19" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="N62" s="9">
+        <v>22</v>
+      </c>
+      <c r="O62" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="P62" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q62" s="9"/>
+      <c r="R62" s="11"/>
+      <c r="S62" s="11" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="63" spans="14:19" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="N63" s="9">
+        <v>23</v>
+      </c>
+      <c r="O63" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="P63" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q63" s="9"/>
+      <c r="R63" s="11"/>
+      <c r="S63" s="11"/>
+    </row>
+    <row r="64" spans="14:19" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="N64" s="9">
+        <v>31</v>
+      </c>
+      <c r="O64" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="P64" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q64" s="9"/>
+      <c r="R64" s="11"/>
+      <c r="S64" s="11"/>
+    </row>
+    <row r="65" spans="14:19" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="N65" s="9">
+        <v>32</v>
+      </c>
+      <c r="O65" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="P65" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q65" s="9"/>
+      <c r="R65" s="11"/>
+      <c r="S65" s="11"/>
+    </row>
+    <row r="66" spans="14:19" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="N66" s="9">
+        <v>33</v>
+      </c>
+      <c r="O66" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="P66" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q66" s="9"/>
+      <c r="R66" s="11"/>
+      <c r="S66" s="11" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="67" spans="14:19" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="N67" s="9">
+        <v>34</v>
+      </c>
+      <c r="O67" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="P67" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q67" s="9"/>
+      <c r="R67" s="11"/>
+      <c r="S67" s="11" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="68" spans="14:19" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="N68" s="9">
+        <v>35</v>
+      </c>
+      <c r="O68" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="P68" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q68" s="9"/>
+      <c r="R68" s="11"/>
+      <c r="S68" s="11" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="69" spans="14:19" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="N69" s="9">
+        <v>36</v>
+      </c>
+      <c r="O69" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="P69" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q69" s="9"/>
+      <c r="R69" s="11"/>
+      <c r="S69" s="11" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="70" spans="14:19" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="N70" s="9">
+        <v>37</v>
+      </c>
+      <c r="O70" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="P70" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q70" s="9"/>
+      <c r="R70" s="11"/>
+      <c r="S70" s="11"/>
+    </row>
+    <row r="71" spans="14:19" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="N71" s="9">
+        <v>38</v>
+      </c>
+      <c r="O71" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="P71" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q71" s="9"/>
+      <c r="R71" s="11"/>
+      <c r="S71" s="11"/>
+    </row>
+    <row r="72" spans="14:19" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="N72" s="9">
+        <v>39</v>
+      </c>
+      <c r="O72" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="P72" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q72" s="9"/>
+      <c r="R72" s="11"/>
+      <c r="S72" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="73" spans="14:19" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="N73" s="9">
+        <v>40</v>
+      </c>
+      <c r="O73" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="P73" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q73" s="9"/>
+      <c r="R73" s="11"/>
+      <c r="S73" s="11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="74" spans="14:19" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="N74" s="9">
+        <v>41</v>
+      </c>
+      <c r="O74" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="P74" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q74" s="9"/>
+      <c r="R74" s="11"/>
+      <c r="S74" s="11" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="75" spans="14:19" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="N75" s="9">
+        <v>42</v>
+      </c>
+      <c r="O75" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="P75" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q75" s="9"/>
+      <c r="R75" s="11"/>
+      <c r="S75" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="76" spans="14:19" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="N76" s="9">
+        <v>43</v>
+      </c>
+      <c r="O76" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="P76" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q76" s="9"/>
+      <c r="R76" s="11"/>
+      <c r="S76" s="11" t="s">
+        <v>129</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="N3:S39">
-    <cfRule type="expression" dxfId="0" priority="7">
+    <cfRule type="expression" dxfId="2" priority="8">
       <formula>$L3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N40:S76">
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>$L40</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16410,6 +18090,556 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="3179" r:id="rId108" name="Check Box 107">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>12</xdr:col>
+                    <xdr:colOff>57150</xdr:colOff>
+                    <xdr:row>41</xdr:row>
+                    <xdr:rowOff>9525</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>13</xdr:col>
+                    <xdr:colOff>76200</xdr:colOff>
+                    <xdr:row>42</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="3180" r:id="rId109" name="Check Box 108">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>12</xdr:col>
+                    <xdr:colOff>57150</xdr:colOff>
+                    <xdr:row>42</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>13</xdr:col>
+                    <xdr:colOff>76200</xdr:colOff>
+                    <xdr:row>43</xdr:row>
+                    <xdr:rowOff>76200</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="3181" r:id="rId110" name="Check Box 109">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>12</xdr:col>
+                    <xdr:colOff>57150</xdr:colOff>
+                    <xdr:row>43</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>13</xdr:col>
+                    <xdr:colOff>76200</xdr:colOff>
+                    <xdr:row>44</xdr:row>
+                    <xdr:rowOff>76200</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="3182" r:id="rId111" name="Check Box 110">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>12</xdr:col>
+                    <xdr:colOff>57150</xdr:colOff>
+                    <xdr:row>45</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>13</xdr:col>
+                    <xdr:colOff>76200</xdr:colOff>
+                    <xdr:row>46</xdr:row>
+                    <xdr:rowOff>76200</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="3183" r:id="rId112" name="Check Box 111">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>12</xdr:col>
+                    <xdr:colOff>57150</xdr:colOff>
+                    <xdr:row>46</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>13</xdr:col>
+                    <xdr:colOff>76200</xdr:colOff>
+                    <xdr:row>47</xdr:row>
+                    <xdr:rowOff>76200</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="3184" r:id="rId113" name="Check Box 112">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>12</xdr:col>
+                    <xdr:colOff>57150</xdr:colOff>
+                    <xdr:row>47</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>13</xdr:col>
+                    <xdr:colOff>76200</xdr:colOff>
+                    <xdr:row>48</xdr:row>
+                    <xdr:rowOff>76200</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="3185" r:id="rId114" name="Check Box 113">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>12</xdr:col>
+                    <xdr:colOff>57150</xdr:colOff>
+                    <xdr:row>48</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>13</xdr:col>
+                    <xdr:colOff>76200</xdr:colOff>
+                    <xdr:row>49</xdr:row>
+                    <xdr:rowOff>76200</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="3186" r:id="rId115" name="Check Box 114">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>12</xdr:col>
+                    <xdr:colOff>57150</xdr:colOff>
+                    <xdr:row>49</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>13</xdr:col>
+                    <xdr:colOff>76200</xdr:colOff>
+                    <xdr:row>50</xdr:row>
+                    <xdr:rowOff>76200</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="3187" r:id="rId116" name="Check Box 115">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>12</xdr:col>
+                    <xdr:colOff>57150</xdr:colOff>
+                    <xdr:row>50</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>13</xdr:col>
+                    <xdr:colOff>76200</xdr:colOff>
+                    <xdr:row>51</xdr:row>
+                    <xdr:rowOff>76200</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="3188" r:id="rId117" name="Check Box 116">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>12</xdr:col>
+                    <xdr:colOff>57150</xdr:colOff>
+                    <xdr:row>51</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>13</xdr:col>
+                    <xdr:colOff>76200</xdr:colOff>
+                    <xdr:row>52</xdr:row>
+                    <xdr:rowOff>76200</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="3189" r:id="rId118" name="Check Box 117">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>12</xdr:col>
+                    <xdr:colOff>57150</xdr:colOff>
+                    <xdr:row>52</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>13</xdr:col>
+                    <xdr:colOff>76200</xdr:colOff>
+                    <xdr:row>53</xdr:row>
+                    <xdr:rowOff>76200</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="3190" r:id="rId119" name="Check Box 118">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>12</xdr:col>
+                    <xdr:colOff>57150</xdr:colOff>
+                    <xdr:row>55</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>13</xdr:col>
+                    <xdr:colOff>76200</xdr:colOff>
+                    <xdr:row>56</xdr:row>
+                    <xdr:rowOff>76200</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="3191" r:id="rId120" name="Check Box 119">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>12</xdr:col>
+                    <xdr:colOff>57150</xdr:colOff>
+                    <xdr:row>56</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>13</xdr:col>
+                    <xdr:colOff>76200</xdr:colOff>
+                    <xdr:row>57</xdr:row>
+                    <xdr:rowOff>76200</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="3192" r:id="rId121" name="Check Box 120">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>12</xdr:col>
+                    <xdr:colOff>57150</xdr:colOff>
+                    <xdr:row>57</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>13</xdr:col>
+                    <xdr:colOff>76200</xdr:colOff>
+                    <xdr:row>58</xdr:row>
+                    <xdr:rowOff>76200</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="3193" r:id="rId122" name="Check Box 121">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>12</xdr:col>
+                    <xdr:colOff>57150</xdr:colOff>
+                    <xdr:row>58</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>13</xdr:col>
+                    <xdr:colOff>76200</xdr:colOff>
+                    <xdr:row>59</xdr:row>
+                    <xdr:rowOff>76200</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="3194" r:id="rId123" name="Check Box 122">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>12</xdr:col>
+                    <xdr:colOff>57150</xdr:colOff>
+                    <xdr:row>60</xdr:row>
+                    <xdr:rowOff>9525</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>13</xdr:col>
+                    <xdr:colOff>76200</xdr:colOff>
+                    <xdr:row>61</xdr:row>
+                    <xdr:rowOff>85725</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="3195" r:id="rId124" name="Check Box 123">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>12</xdr:col>
+                    <xdr:colOff>57150</xdr:colOff>
+                    <xdr:row>61</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>13</xdr:col>
+                    <xdr:colOff>76200</xdr:colOff>
+                    <xdr:row>62</xdr:row>
+                    <xdr:rowOff>76200</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="3196" r:id="rId125" name="Check Box 124">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>12</xdr:col>
+                    <xdr:colOff>57150</xdr:colOff>
+                    <xdr:row>64</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>13</xdr:col>
+                    <xdr:colOff>76200</xdr:colOff>
+                    <xdr:row>65</xdr:row>
+                    <xdr:rowOff>76200</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="3197" r:id="rId126" name="Check Box 125">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>12</xdr:col>
+                    <xdr:colOff>57150</xdr:colOff>
+                    <xdr:row>65</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>13</xdr:col>
+                    <xdr:colOff>76200</xdr:colOff>
+                    <xdr:row>66</xdr:row>
+                    <xdr:rowOff>76200</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="3198" r:id="rId127" name="Check Box 126">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>12</xdr:col>
+                    <xdr:colOff>57150</xdr:colOff>
+                    <xdr:row>67</xdr:row>
+                    <xdr:rowOff>9525</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>13</xdr:col>
+                    <xdr:colOff>76200</xdr:colOff>
+                    <xdr:row>68</xdr:row>
+                    <xdr:rowOff>85725</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="3199" r:id="rId128" name="Check Box 127">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>12</xdr:col>
+                    <xdr:colOff>57150</xdr:colOff>
+                    <xdr:row>68</xdr:row>
+                    <xdr:rowOff>9525</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>13</xdr:col>
+                    <xdr:colOff>76200</xdr:colOff>
+                    <xdr:row>69</xdr:row>
+                    <xdr:rowOff>85725</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="3200" r:id="rId129" name="Check Box 128">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>12</xdr:col>
+                    <xdr:colOff>57150</xdr:colOff>
+                    <xdr:row>72</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>13</xdr:col>
+                    <xdr:colOff>76200</xdr:colOff>
+                    <xdr:row>73</xdr:row>
+                    <xdr:rowOff>76200</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="3201" r:id="rId130" name="Check Box 129">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>12</xdr:col>
+                    <xdr:colOff>57150</xdr:colOff>
+                    <xdr:row>73</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>13</xdr:col>
+                    <xdr:colOff>76200</xdr:colOff>
+                    <xdr:row>74</xdr:row>
+                    <xdr:rowOff>76200</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="3202" r:id="rId131" name="Check Box 130">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>12</xdr:col>
+                    <xdr:colOff>57150</xdr:colOff>
+                    <xdr:row>74</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>13</xdr:col>
+                    <xdr:colOff>76200</xdr:colOff>
+                    <xdr:row>75</xdr:row>
+                    <xdr:rowOff>76200</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="3203" r:id="rId132" name="Check Box 131">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>12</xdr:col>
+                    <xdr:colOff>57150</xdr:colOff>
+                    <xdr:row>39</xdr:row>
+                    <xdr:rowOff>9525</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>13</xdr:col>
+                    <xdr:colOff>76200</xdr:colOff>
+                    <xdr:row>40</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
       </controls>
     </mc:Choice>
   </mc:AlternateContent>
